--- a/刷题/大厂面试真题.xlsx
+++ b/刷题/大厂面试真题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57E081-0FC2-4515-8A0B-A43945F51BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E8E74-42B2-41CD-8EEC-17C8889F5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28608" yWindow="2112" windowWidth="16128" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,21 @@
       </rPr>
       <t>次方</t>
     </r>
+  </si>
+  <si>
+    <t>1262. 可被三整除的最大和</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -268,11 +283,11 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -331,10 +346,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{545C349E-DBB0-44C7-B376-B8ADD8FDA2A4}" name="大厂" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{545C349E-DBB0-44C7-B376-B8ADD8FDA2A4}" name="大厂" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -620,7 +635,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -648,75 +663,86 @@
       <c r="E2" s="7"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="D7" s="6"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2043,22 +2069,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A5:A244">
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A244">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A5:A255">
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A255">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A5:A280">
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A280">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{1DC8C788-4204-4972-AD25-91455F6807C8}"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/sort-list/" xr:uid="{0EE92BA2-9F6D-4343-AA91-3F5D4FFAB833}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{002305C7-1654-4267-AF3C-B13B1F42610E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/大厂面试真题.xlsx
+++ b/刷题/大厂面试真题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E8E74-42B2-41CD-8EEC-17C8889F5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B2CE7-8A97-4512-AE51-9E972F55CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28608" yWindow="2112" windowWidth="16128" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m+1 n+1问题搞清楚；举例推导，看图理解；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +266,37 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -338,18 +383,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:F1048526" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:F1048526" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F1048526" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F280">
     <sortCondition descending="1" ref="D1:D1048526"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{545C349E-DBB0-44C7-B376-B8ADD8FDA2A4}" name="大厂" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{545C349E-DBB0-44C7-B376-B8ADD8FDA2A4}" name="大厂" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -635,7 +680,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -663,21 +708,21 @@
       <c r="E2" s="7"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -687,62 +732,76 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="D7" s="6"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -2069,23 +2128,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A244">
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A7:A244">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A7:A255">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A287 A289:A1048576 A7:A280">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A255">
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A287 A289:A1048576 A6:A280">
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{1DC8C788-4204-4972-AD25-91455F6807C8}"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/sort-list/" xr:uid="{0EE92BA2-9F6D-4343-AA91-3F5D4FFAB833}"/>
     <hyperlink ref="A5" r:id="rId3" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{002305C7-1654-4267-AF3C-B13B1F42610E}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{16211B4D-B159-4561-806D-98D27F7E9A24}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{38DF39BA-13E8-48BC-8F5D-C988FD88A7EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>